--- a/K12.Club.Volunteer/Resources/匯出選社結果_範本.xlsx
+++ b/K12.Club.Volunteer/Resources/匯出選社結果_範本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,35 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>志願一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志願二</t>
+    <t>鎖定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -449,17 +421,10 @@
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,45 +440,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
